--- a/pred_ohlcv/54_21/2019-10-27 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 OGO ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>2538.982833644801</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2826.737066355199</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>159086.2995336448</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5157732.389166007</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>6784187.538344922</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2429645.331197862</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1341786.897497862</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 OGO ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>2538.982833644801</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5576.281733644801</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5592.262933644801</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2826.737066355199</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23817.1055336448</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5770199.310866007</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>6784187.538344922</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5805037.827897863</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4862533.220197862</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3477029.871497862</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1341786.897497862</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>315660.0102802521</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
